--- a/POC_01/src/main/resources/Injector/Injector.xlsx
+++ b/POC_01/src/main/resources/Injector/Injector.xlsx
@@ -1,21 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InjectorClient" sheetId="1" r:id="rId1"/>
+    <sheet name="InjectorServer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>www.google.co.in/search</t>
+  </si>
+  <si>
+    <t>TEST_CASE_NO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +65,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +395,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/POC_01/src/main/resources/Injector/Injector.xlsx
+++ b/POC_01/src/main/resources/Injector/Injector.xlsx
@@ -11,7 +11,6 @@
     <sheet name="InjectorServer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -399,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G18" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/POC_01/src/main/resources/Injector/Injector.xlsx
+++ b/POC_01/src/main/resources/Injector/Injector.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InjectorClient" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>TestCaseID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>URL</t>
   </si>
@@ -33,6 +30,12 @@
   </si>
   <si>
     <t>TEST_CASE_NO</t>
+  </si>
+  <si>
+    <t>www.facebook.com/</t>
+  </si>
+  <si>
+    <t>www.web.whatsapp.com/??/en</t>
   </si>
 </sst>
 </file>
@@ -83,13 +86,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G17:G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,26 +415,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -440,26 +446,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
